--- a/Schema_Diagram.xlsx
+++ b/Schema_Diagram.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>CatId</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>ReminderId</t>
+  </si>
+  <si>
+    <t>Descr</t>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>UpdatedDate</t>
   </si>
 </sst>
 </file>
@@ -136,25 +148,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:C19"/>
+  <dimension ref="A7:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -495,7 +512,7 @@
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,16 +520,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -523,12 +539,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -540,6 +562,14 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
